--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/102.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/102.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2654110502158828</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.707499005467981</v>
+        <v>-1.567219044941564</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1373213990302507</v>
+        <v>0.05597773974145438</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08222603239969033</v>
+        <v>-0.1161152086377721</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2959759091632388</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.769234218895874</v>
+        <v>-1.669622437893628</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03417484159991478</v>
+        <v>0.02745570028555295</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003929945396741087</v>
+        <v>-0.09387575611705083</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3454308265251767</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.02681371302185</v>
+        <v>-1.79259863847064</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05201370917463727</v>
+        <v>0.059421993187908</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1403753677163111</v>
+        <v>-0.1571849013869429</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4025074821711299</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.155013965668134</v>
+        <v>-1.991541871241678</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07656396590314639</v>
+        <v>0.09665467955417073</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08119377839941787</v>
+        <v>-0.1619212973938507</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4490047976439776</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.260772549133105</v>
+        <v>-2.124589483549778</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1477442304311273</v>
+        <v>0.1457079152644303</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01710204735279872</v>
+        <v>-0.1715313339282118</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.460947965289653</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.056118338254478</v>
+        <v>-2.000656221449175</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02242830278843365</v>
+        <v>0.2670963135425795</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02140480907670666</v>
+        <v>-0.1876385844671166</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4216462941534248</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.747781732296152</v>
+        <v>-1.750494501649061</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1568067489313976</v>
+        <v>0.3432130006659227</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02935331088361361</v>
+        <v>-0.1880517780768437</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3184453056964732</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.386761481049522</v>
+        <v>-1.316191516623541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06849765212099648</v>
+        <v>0.3963368504536357</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01713024018664663</v>
+        <v>-0.1659130688743951</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1475637431588397</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.005153091672988</v>
+        <v>-0.8012617559218609</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06833850687908742</v>
+        <v>0.3887226996595469</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04816794250318375</v>
+        <v>-0.1256945841622241</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.08823716638556356</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5086038763877576</v>
+        <v>-0.1926231886494789</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06745472586396702</v>
+        <v>0.3050663241947512</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08508233838562838</v>
+        <v>-0.1019250012422305</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3754464755936002</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3059846944439327</v>
+        <v>0.5379658954160522</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3662506475722504</v>
+        <v>0.08083651853726589</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2465665773363123</v>
+        <v>0.00728075576537655</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6939935540123088</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7545844703756305</v>
+        <v>1.213953561025871</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5706865812612865</v>
+        <v>-0.2354478592039219</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4517777965616208</v>
+        <v>0.1486980937546113</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.029661616780239</v>
       </c>
       <c r="E14" t="n">
-        <v>1.518304965720062</v>
+        <v>1.988493012723936</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.090976178504692</v>
+        <v>-0.7102817792330671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4512331986237119</v>
+        <v>0.2437370041361313</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.368197633953621</v>
       </c>
       <c r="E15" t="n">
-        <v>2.343089052370567</v>
+        <v>2.811113308103715</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.459936171269684</v>
+        <v>-1.130374116189772</v>
       </c>
       <c r="G15" t="n">
-        <v>0.707384035692734</v>
+        <v>0.4281147971522635</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.698151982008846</v>
       </c>
       <c r="E16" t="n">
-        <v>3.069143227065736</v>
+        <v>3.487187116550897</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.848076815804943</v>
+        <v>-1.608274137209826</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9127690006408606</v>
+        <v>0.5835398365256763</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.005832970393761</v>
       </c>
       <c r="E17" t="n">
-        <v>3.845812888928437</v>
+        <v>4.130570448242633</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.989837995119587</v>
+        <v>-1.978029856184363</v>
       </c>
       <c r="G17" t="n">
-        <v>1.034348665218919</v>
+        <v>0.7199170885050943</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.281728813541295</v>
       </c>
       <c r="E18" t="n">
-        <v>4.400142047363288</v>
+        <v>4.70880059392566</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.451039446123918</v>
+        <v>-2.38069067898371</v>
       </c>
       <c r="G18" t="n">
-        <v>1.254049401698405</v>
+        <v>0.9306896309086741</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.527231424843382</v>
       </c>
       <c r="E19" t="n">
-        <v>4.864367257963891</v>
+        <v>5.155457045848358</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.642223983339866</v>
+        <v>-2.76250201504488</v>
       </c>
       <c r="G19" t="n">
-        <v>1.387966472644642</v>
+        <v>1.103829433769082</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.740588392186104</v>
       </c>
       <c r="E20" t="n">
-        <v>5.076865577210924</v>
+        <v>5.540689274586527</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.873331345529577</v>
+        <v>-3.090442686719837</v>
       </c>
       <c r="G20" t="n">
-        <v>1.601866438058948</v>
+        <v>1.258271860777313</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.921348762711996</v>
       </c>
       <c r="E21" t="n">
-        <v>5.529455664575075</v>
+        <v>5.85603484140526</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.203373756431398</v>
+        <v>-3.385246836947576</v>
       </c>
       <c r="G21" t="n">
-        <v>1.797469080797987</v>
+        <v>1.400210435935002</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.065926462309953</v>
       </c>
       <c r="E22" t="n">
-        <v>5.917407962906608</v>
+        <v>6.116917694336918</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.379248959390123</v>
+        <v>-3.675811007519316</v>
       </c>
       <c r="G22" t="n">
-        <v>1.865929275732605</v>
+        <v>1.485897738294252</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.172018177878894</v>
       </c>
       <c r="E23" t="n">
-        <v>5.930640378754513</v>
+        <v>6.207748746120439</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.557609894223621</v>
+        <v>-3.900921952199665</v>
       </c>
       <c r="G23" t="n">
-        <v>1.989006949651935</v>
+        <v>1.58946478957477</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.24329570902574</v>
       </c>
       <c r="E24" t="n">
-        <v>6.126681035920824</v>
+        <v>6.32210263269659</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.71149385283708</v>
+        <v>-4.116929497033198</v>
       </c>
       <c r="G24" t="n">
-        <v>2.115733283750447</v>
+        <v>1.699218064616468</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.280823363126849</v>
       </c>
       <c r="E25" t="n">
-        <v>6.012095001698219</v>
+        <v>6.319719834212227</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.972237271176055</v>
+        <v>-4.224485399698078</v>
       </c>
       <c r="G25" t="n">
-        <v>1.98133439693421</v>
+        <v>1.706584007235102</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.2903284548251</v>
       </c>
       <c r="E26" t="n">
-        <v>5.960293955480869</v>
+        <v>6.225324805038798</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.923754184245295</v>
+        <v>-4.267392562969658</v>
       </c>
       <c r="G26" t="n">
-        <v>1.884365302976509</v>
+        <v>1.69571978939065</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.272852070882037</v>
       </c>
       <c r="E27" t="n">
-        <v>5.76462561057774</v>
+        <v>6.063215665505205</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.875842706142126</v>
+        <v>-4.30816805602851</v>
       </c>
       <c r="G27" t="n">
-        <v>1.962105563576943</v>
+        <v>1.715904954247463</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.228073436307195</v>
       </c>
       <c r="E28" t="n">
-        <v>5.878813051671528</v>
+        <v>5.977226133191137</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.854410660215677</v>
+        <v>-4.272453089652747</v>
       </c>
       <c r="G28" t="n">
-        <v>1.875854682654602</v>
+        <v>1.674725757891474</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.158661192059095</v>
       </c>
       <c r="E29" t="n">
-        <v>5.654667928803315</v>
+        <v>5.706054321362847</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.822172798368413</v>
+        <v>-4.24450995926489</v>
       </c>
       <c r="G29" t="n">
-        <v>1.786829710359535</v>
+        <v>1.627050807579032</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.06169949563389</v>
       </c>
       <c r="E30" t="n">
-        <v>5.618336092109143</v>
+        <v>5.57948129231388</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.930184236037657</v>
+        <v>-4.196291141038586</v>
       </c>
       <c r="G30" t="n">
-        <v>1.820390375777162</v>
+        <v>1.611749503586309</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.941553852051146</v>
       </c>
       <c r="E31" t="n">
-        <v>5.344632556891217</v>
+        <v>5.325584769497222</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.962110377617512</v>
+        <v>-4.056826617370941</v>
       </c>
       <c r="G31" t="n">
-        <v>1.596562083344677</v>
+        <v>1.460538163003259</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.800591205188369</v>
       </c>
       <c r="E32" t="n">
-        <v>4.988443604777403</v>
+        <v>4.981194466006041</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.75063482205816</v>
+        <v>-3.869907610652582</v>
       </c>
       <c r="G32" t="n">
-        <v>1.56247142047005</v>
+        <v>1.342151623600018</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.643122847104509</v>
       </c>
       <c r="E33" t="n">
-        <v>4.726932931166655</v>
+        <v>4.70473728008866</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.801778846634601</v>
+        <v>-3.659358455606911</v>
       </c>
       <c r="G33" t="n">
-        <v>1.626008333242124</v>
+        <v>1.295362922478758</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.476332048235194</v>
       </c>
       <c r="E34" t="n">
-        <v>4.489435668507082</v>
+        <v>4.308840860094494</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.777695353375062</v>
+        <v>-3.485138217159231</v>
       </c>
       <c r="G34" t="n">
-        <v>1.477616345522618</v>
+        <v>1.210928341381508</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.302097927563936</v>
       </c>
       <c r="E35" t="n">
-        <v>4.050736478679836</v>
+        <v>3.952692789327226</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.766602638004383</v>
+        <v>-3.358345450872583</v>
       </c>
       <c r="G35" t="n">
-        <v>1.473974985583892</v>
+        <v>1.142161536347799</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.127740922632285</v>
       </c>
       <c r="E36" t="n">
-        <v>3.844906199063983</v>
+        <v>3.610696964705136</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.631460586709874</v>
+        <v>-3.201991820913352</v>
       </c>
       <c r="G36" t="n">
-        <v>1.330904873155748</v>
+        <v>1.006942102504472</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.95437185856413</v>
       </c>
       <c r="E37" t="n">
-        <v>3.51052306518789</v>
+        <v>3.221240816839968</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.564682367175982</v>
+        <v>-3.0611314912708</v>
       </c>
       <c r="G37" t="n">
-        <v>1.270929017677401</v>
+        <v>0.8869728709706858</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.784106432809541</v>
       </c>
       <c r="E38" t="n">
-        <v>3.327633061176394</v>
+        <v>2.875555450692152</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.412329268985842</v>
+        <v>-2.899415834697706</v>
       </c>
       <c r="G38" t="n">
-        <v>1.131327979513256</v>
+        <v>0.7925413405949838</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.619063849757846</v>
       </c>
       <c r="E39" t="n">
-        <v>2.901558907191236</v>
+        <v>2.503866628045252</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.271148458787334</v>
+        <v>-2.782030888284829</v>
       </c>
       <c r="G39" t="n">
-        <v>1.05655599668164</v>
+        <v>0.6966001204932823</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.457436060463647</v>
       </c>
       <c r="E40" t="n">
-        <v>2.516639128744521</v>
+        <v>2.186860986547155</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.110650482322059</v>
+        <v>-2.658662664795408</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9558856808134855</v>
+        <v>0.593253536474492</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.303014174488384</v>
       </c>
       <c r="E41" t="n">
-        <v>2.235845599997142</v>
+        <v>1.966395184868032</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.054021057068074</v>
+        <v>-2.543833532565666</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8239396747899754</v>
+        <v>0.5123449715167864</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.155017762448718</v>
       </c>
       <c r="E42" t="n">
-        <v>1.835141241639613</v>
+        <v>1.619327153178125</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.817648031438501</v>
+        <v>-2.45536556861728</v>
       </c>
       <c r="G42" t="n">
-        <v>0.744021022437906</v>
+        <v>0.4668221320903441</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.014997749670867</v>
       </c>
       <c r="E43" t="n">
-        <v>1.731847219352095</v>
+        <v>1.430357508916085</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.763908041356425</v>
+        <v>-2.407785521430748</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6106908908242146</v>
+        <v>0.3783081766270951</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8843695785416699</v>
       </c>
       <c r="E44" t="n">
-        <v>1.461363090174622</v>
+        <v>1.204571291993692</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.698459925633351</v>
+        <v>-2.373572214516484</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4966056530967906</v>
+        <v>0.3276269872954723</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7612085483834901</v>
       </c>
       <c r="E45" t="n">
-        <v>1.291631039558395</v>
+        <v>1.042361409141826</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.540344017628394</v>
+        <v>-2.256477087649652</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4352690327977162</v>
+        <v>0.2284123393739535</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6468210397916496</v>
       </c>
       <c r="E46" t="n">
-        <v>1.002069922025109</v>
+        <v>0.8219248084245214</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.505517490515949</v>
+        <v>-2.218795436495435</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4826519734919762</v>
+        <v>0.248778550194039</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.538656190128543</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6291239979719369</v>
+        <v>0.5272564426692369</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.459183594375006</v>
+        <v>-2.148140059256136</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3024265572463882</v>
+        <v>0.1924893161452359</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4359327259701111</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5370854864172343</v>
+        <v>0.4018791930067251</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.443342072588647</v>
+        <v>-2.06082845339575</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2627263896064898</v>
+        <v>0.1270222197969808</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3378700933962229</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3133710777358398</v>
+        <v>0.2350321974181336</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.394938558278842</v>
+        <v>-1.982101200285862</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1632985746636983</v>
+        <v>0.09738616364771599</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2431809155371335</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2264733955092268</v>
+        <v>0.1237779929389816</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.268888226446421</v>
+        <v>-1.898745594727793</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04815334202227466</v>
+        <v>0.04088522262573116</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1530135770029114</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07637023142717618</v>
+        <v>0.02440711987173559</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.241789733879156</v>
+        <v>-1.851571440910533</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04624943931172972</v>
+        <v>3.891723446940402e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.06657803375246502</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.02888317539834101</v>
+        <v>-0.05107444633206232</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.106134475680692</v>
+        <v>-1.768352349848965</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.005142793440165569</v>
+        <v>-0.02299334139961532</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.01625879406658876</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2956587824249057</v>
+        <v>-0.1430530959150376</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.04639222789689</v>
+        <v>-1.707590988497709</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02488747569364455</v>
+        <v>-0.08851883967150681</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09597619451686586</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1084689367856833</v>
+        <v>-0.1455541582947642</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.081193204167744</v>
+        <v>-1.684722255249806</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.13759397610313</v>
+        <v>-0.1346023375648581</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1725358224718491</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.413289016917056</v>
+        <v>-0.284796024628545</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.13307674310223</v>
+        <v>-1.686008557617896</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1733315732243022</v>
+        <v>-0.1644617810720319</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2460801117843295</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5357257297244776</v>
+        <v>-0.351337716371709</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.958863804895005</v>
+        <v>-1.627621234462457</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1425727400931287</v>
+        <v>-0.189965901124025</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3168738723917491</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5704617338552865</v>
+        <v>-0.3799897001077013</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.954417958458188</v>
+        <v>-1.623920012552004</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1835154086583904</v>
+        <v>-0.192732692256297</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3857158343001947</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6226861940189997</v>
+        <v>-0.387414044649972</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.983702143017543</v>
+        <v>-1.620226090882005</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2513726037314631</v>
+        <v>-0.2704028705483671</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4528067877750087</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.838888655272669</v>
+        <v>-0.4404561317445941</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.913493540494062</v>
+        <v>-1.618428771682096</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2653219031920048</v>
+        <v>-0.3132625822569919</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5184579961801841</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7828125882451386</v>
+        <v>-0.4323557849362327</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.912572980172744</v>
+        <v>-1.624864663666822</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2442139879417377</v>
+        <v>-0.301107681900177</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5833662872789663</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9536382148814563</v>
+        <v>-0.5111940017010297</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.990572399309314</v>
+        <v>-1.657835469655722</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3878578992696082</v>
+        <v>-0.3744079362561573</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6466963030641957</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.093160410448692</v>
+        <v>-0.6374253794967231</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.861573500357304</v>
+        <v>-1.693413921534985</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4048017573646037</v>
+        <v>-0.4011297364159683</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7087619748692647</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.13517475431268</v>
+        <v>-0.7191603316738829</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.020087271467033</v>
+        <v>-1.776679004111417</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5183015158075732</v>
+        <v>-0.4291480592805063</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7682341610976926</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.227370951061201</v>
+        <v>-0.8421080613131227</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.009699029300218</v>
+        <v>-1.776687764399963</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5904497922198266</v>
+        <v>-0.4798277885640381</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8233039616143517</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.391294930371793</v>
+        <v>-0.9121845294843766</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.93148571311833</v>
+        <v>-1.750482821264333</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.633220440994906</v>
+        <v>-0.5077249274370306</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8728866148685788</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.607168880805008</v>
+        <v>-0.9802242305688128</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.114739999128508</v>
+        <v>-1.912053203052381</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6617366402584438</v>
+        <v>-0.5217107280998451</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.9149149874855436</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.658175660860904</v>
+        <v>-0.9964424447626267</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.063858783208431</v>
+        <v>-1.938225295105965</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6844798093705287</v>
+        <v>-0.5117780209373931</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.949030164214746</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.628370239133093</v>
+        <v>-1.043353789923523</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.171626392846493</v>
+        <v>-1.993288088758404</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6892673070606182</v>
+        <v>-0.5689637245140142</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.9736215523241465</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.589719846070558</v>
+        <v>-1.041609032454887</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.238335990120111</v>
+        <v>-2.038575130418165</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6814648100628021</v>
+        <v>-0.5533193092199274</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.9875733601448585</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.728478436486248</v>
+        <v>-1.074750664070424</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.346792742457082</v>
+        <v>-2.125926157577005</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7102335976460672</v>
+        <v>-0.5740665925917401</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9908808501299217</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.768619538649601</v>
+        <v>-1.059268314114428</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.524049150909808</v>
+        <v>-2.193499373296396</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8811044857732031</v>
+        <v>-0.6459359998186298</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9828505567122447</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.803585500354728</v>
+        <v>-1.033472184444253</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.713816711453529</v>
+        <v>-2.250992416996153</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7578997876699635</v>
+        <v>-0.6318304752123609</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9650370152647434</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.691848749981531</v>
+        <v>-0.9360592358669156</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.752905118943337</v>
+        <v>-2.254356367797607</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.8640569642637531</v>
+        <v>-0.6800777643764389</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9381137799197775</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.772617150322509</v>
+        <v>-0.8683582659395701</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.852961484589264</v>
+        <v>-2.264154750535695</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.9000938712435617</v>
+        <v>-0.7054490200521594</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9038646800218494</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.516866366430396</v>
+        <v>-0.6871385569440733</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.823053859495091</v>
+        <v>-2.251390280100926</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.9654091225903623</v>
+        <v>-0.6881416099825276</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8641958658255223</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.533427691925573</v>
+        <v>-0.5540872945157455</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.68356305496181</v>
+        <v>-2.152689569107407</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.9236210861804643</v>
+        <v>-0.6566104114112634</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8192245624054865</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.336562107587899</v>
+        <v>-0.3850940282335181</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.698825667680124</v>
+        <v>-2.194397302872305</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.8047541909553145</v>
+        <v>-0.6184111732088191</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7699278455116341</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.071196907017152</v>
+        <v>-0.2341863776533768</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.667574798342314</v>
+        <v>-2.136668461405866</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.8693846797474789</v>
+        <v>-0.641008337511813</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7151070739025152</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8692751761406609</v>
+        <v>-0.03365607260752155</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.588867985905699</v>
+        <v>-2.105623458848874</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.7992074682579523</v>
+        <v>-0.5397686028882038</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6545927927970633</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6240206779740903</v>
+        <v>0.1343283004438879</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.579669682932974</v>
+        <v>-2.070251603774475</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7410975542397862</v>
+        <v>-0.5108450502073025</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5886599505126618</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5242774926436625</v>
+        <v>0.3015870295941157</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.482941496910273</v>
+        <v>-1.993442123831995</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.7094145106670674</v>
+        <v>-0.407260478349694</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5174032010663455</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2374393647999214</v>
+        <v>0.5171499897839669</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.429992122869423</v>
+        <v>-1.935394261857693</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6574397187268995</v>
+        <v>-0.3276163150387154</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4430716402059833</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.003386355586802403</v>
+        <v>0.7845942988361678</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.348841189928627</v>
+        <v>-1.85144514675067</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.644478871823903</v>
+        <v>-0.2832264729308182</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3665695000148449</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3529778022979201</v>
+        <v>1.105064634453991</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.32211865974477</v>
+        <v>-1.822368289020223</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5887999378770997</v>
+        <v>-0.2440913439021014</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2899618890440497</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4391381602386242</v>
+        <v>1.275598251472127</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.076892632515973</v>
+        <v>-1.755511226889423</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5652727229401969</v>
+        <v>-0.2136420409662005</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2151562656278558</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7489705854660865</v>
+        <v>1.556226794785233</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.161868161430905</v>
+        <v>-1.689616336450531</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.453362956868227</v>
+        <v>-0.1412689171479472</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1439448956190448</v>
       </c>
       <c r="E87" t="n">
-        <v>1.00012659801611</v>
+        <v>1.783508100952718</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.046590794437254</v>
+        <v>-1.597053667631193</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4208914873264176</v>
+        <v>-0.06133858441115048</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.07987090049095756</v>
       </c>
       <c r="E88" t="n">
-        <v>1.119787759402714</v>
+        <v>1.945402613416947</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.816577738291679</v>
+        <v>-1.474435908860498</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.3629523989348877</v>
+        <v>-0.07387601736778347</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02483000649038517</v>
       </c>
       <c r="E89" t="n">
-        <v>1.399413249677366</v>
+        <v>2.11459736633572</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.731324070215429</v>
+        <v>-1.402252591294063</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2380803259118303</v>
+        <v>0.01098927791628465</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01847442509327836</v>
       </c>
       <c r="E90" t="n">
-        <v>1.619762247509216</v>
+        <v>2.252265300827501</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.515248633145669</v>
+        <v>-1.202723879238571</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1833825442821177</v>
+        <v>0.06226032667663452</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04864196668204281</v>
       </c>
       <c r="E91" t="n">
-        <v>1.64252001710221</v>
+        <v>2.281114391055766</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.297282433798182</v>
+        <v>-1.022092569623711</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1025907831716849</v>
+        <v>0.09070498358371779</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06428480624600895</v>
       </c>
       <c r="E92" t="n">
-        <v>1.615411304198308</v>
+        <v>2.269489488155951</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.10654175120187</v>
+        <v>-0.8627020396353898</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1220225632135887</v>
+        <v>0.1133386490889844</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06392429189777504</v>
       </c>
       <c r="E93" t="n">
-        <v>1.726421680646279</v>
+        <v>2.288871626562764</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.837257781555124</v>
+        <v>-0.673887160470986</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.113526543372591</v>
+        <v>0.09456097059180765</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04795683830457954</v>
       </c>
       <c r="E94" t="n">
-        <v>1.689924858517834</v>
+        <v>2.234903868978506</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7667286984756884</v>
+        <v>-0.5124803040691203</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1249338991068607</v>
+        <v>0.08567657795862822</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01809127706396656</v>
       </c>
       <c r="E95" t="n">
-        <v>1.689410921589834</v>
+        <v>2.130549851776988</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5077964697934851</v>
+        <v>-0.3240085362060799</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1078279756737744</v>
+        <v>0.04857675596863819</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02149163661621897</v>
       </c>
       <c r="E96" t="n">
-        <v>1.568225469996321</v>
+        <v>1.983477747531664</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2925722407607247</v>
+        <v>-0.1954527618496599</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06096189200369603</v>
+        <v>0.01947361737255509</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06540255963107683</v>
       </c>
       <c r="E97" t="n">
-        <v>1.447759822111626</v>
+        <v>1.854370074996881</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.09263617528786934</v>
+        <v>-0.09446999569005067</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1888051628917526</v>
+        <v>0.005461535844104312</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1099927871936102</v>
       </c>
       <c r="E98" t="n">
-        <v>1.388090576732369</v>
+        <v>1.698152229510104</v>
       </c>
       <c r="F98" t="n">
-        <v>0.06340208428372511</v>
+        <v>-0.01881322371534372</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1332474129364948</v>
+        <v>-0.004230263383347631</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1508683200245209</v>
       </c>
       <c r="E99" t="n">
-        <v>1.210696193735053</v>
+        <v>1.528065387207786</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09317976509780802</v>
+        <v>0.03473696011491463</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2186543860622901</v>
+        <v>-0.03776610798342953</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1862135804132502</v>
       </c>
       <c r="E100" t="n">
-        <v>1.165374840945157</v>
+        <v>1.390689462334187</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2305878110294075</v>
+        <v>0.1024014288399874</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2575033456651887</v>
+        <v>-0.07508639723514679</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2142186036219799</v>
       </c>
       <c r="E101" t="n">
-        <v>1.030872290714465</v>
+        <v>1.221991125766323</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2077906201379591</v>
+        <v>0.1058997040658046</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.07426731025614701</v>
+        <v>-0.042476223124701</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2360525310909329</v>
       </c>
       <c r="E102" t="n">
-        <v>1.003286142084836</v>
+        <v>1.086684089037541</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1816323985412388</v>
+        <v>0.1092505144344401</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2115687726771101</v>
+        <v>-0.1153764243037723</v>
       </c>
     </row>
   </sheetData>
